--- a/IphoneCrawler/IphoneCrawler/outputbefore.xlsx
+++ b/IphoneCrawler/IphoneCrawler/outputbefore.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Iphone 6s 64 GB Rose Gold -  Θεσσαλονίκη</t>
+          <t xml:space="preserve">Iphone 6s 64 GB Rose Gold -  Θεσσαλονίκη    </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
